--- a/src/main/resources/template/excel/template_exam.xlsx
+++ b/src/main/resources/template/excel/template_exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\dkt-admin\src\main\resources\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39547893-D414-4CDA-82B6-FB6646E1593A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5956A3-A9E6-4256-ABC8-EE3A77E22985}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Thời gian thi</t>
+  </si>
+  <si>
+    <t>Ngày thi</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -193,12 +196,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -220,19 +236,22 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,28 +583,29 @@
     <col min="4" max="4" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="7" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -594,12 +614,13 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -608,39 +629,43 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/template_exam.xlsx
+++ b/src/main/resources/template/excel/template_exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\dkt-admin\src\main\resources\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5956A3-A9E6-4256-ABC8-EE3A77E22985}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A130497-5B21-4F7C-8B98-F32BAC68A06F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Ngày thi</t>
+  </si>
+  <si>
+    <t>Số tín chỉ</t>
   </si>
 </sst>
 </file>
@@ -245,13 +248,13 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,32 +583,34 @@
     <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -615,23 +620,24 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -642,30 +648,33 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F5" s="8"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/template_exam.xlsx
+++ b/src/main/resources/template/excel/template_exam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\dkt-admin\src\main\resources\template\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Khoa luan\dkt-admin\src\main\resources\template\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A130497-5B21-4F7C-8B98-F32BAC68A06F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D9007-96B3-460A-91C6-2A096230DEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Khu vực</t>
   </si>
   <si>
-    <t>Số máy hiện có</t>
-  </si>
-  <si>
-    <t>Số máy dự phòng</t>
-  </si>
-  <si>
     <t>Danh sách lịch thi</t>
   </si>
   <si>
@@ -58,6 +52,9 @@
   </si>
   <si>
     <t>Số tín chỉ</t>
+  </si>
+  <si>
+    <t>Số sinh viên</t>
   </si>
 </sst>
 </file>
@@ -259,8 +256,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,14 +584,14 @@
     <col min="5" max="5" width="10.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -604,13 +601,12 @@
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -620,13 +616,12 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -635,46 +630,42 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>8</v>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
